--- a/Zilllow_JS_BDD_Project/Data_Files/Contact_List.xlsx
+++ b/Zilllow_JS_BDD_Project/Data_Files/Contact_List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared_TC_Projects\Demo_CI_Suite\Bearstore_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KMJ\TC_Head_Start_Suite\Zilllow_JS_BDD_Project\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9D242-D0DE-4A6E-A3FB-AE91C2154CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AEFE1-3012-46FA-AFF7-465267C7D61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="10920" xr2:uid="{084FFFA1-4D60-4752-B414-257B00A5D176}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{084FFFA1-4D60-4752-B414-257B00A5D176}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact_Information" sheetId="1" r:id="rId1"/>
+    <sheet name="Search_Criteria" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -130,6 +131,48 @@
   </si>
   <si>
     <t>dan@smartbear.com</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -484,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25349621-2914-4FB2-82D4-8E41E1C25A8A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -619,4 +662,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F27AF6-DA82-424A-8E18-06B5300231D5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>